--- a/biology/Botanique/Salviniaceae/Salviniaceae.xlsx
+++ b/biology/Botanique/Salviniaceae/Salviniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Salviniaceae sont une famille de fougères aquatiques. Cette famille est actuellement classée dans l'ordre des Salviniales.
-Les Salviniaceae comprennent deux genres : Azolla et Salvinia[1], pour un total de 20 espèces environ[2].
-Le genre Azolla était précédemment classé dans sa propre famille, celle des Azollaceae, mais des recherches récentes ont montré que les genres  Azolla  et  Salvinia  ont une relation phylogénétique étroite comme le montre le cladogramme ci-après[3] :
+Les Salviniaceae comprennent deux genres : Azolla et Salvinia, pour un total de 20 espèces environ.
+Le genre Azolla était précédemment classé dans sa propre famille, celle des Azollaceae, mais des recherches récentes ont montré que les genres  Azolla  et  Salvinia  ont une relation phylogénétique étroite comme le montre le cladogramme ci-après :
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Salvinia, dont le nom est un hommage au botaniste italien A.W. Salvini (1633–1729)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Salvinia, dont le nom est un hommage au botaniste italien A.W. Salvini (1633–1729).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Salviniacées sont des plantes aquatiques flottantes, non enracinées. Elles sont composées d'une tige ramifiée. À chaque nœud, il apparaît 3 feuilles  présentant un dimorphisme marqué : 2 feuilles chlorophylliennes sont étalées à la surface de l'eau (rôle dans la flottaison), la troisième feuille est réduite à ses nervures (ressemble à des racines). Cette dernière porte les fructifications (sporanges).
 Les sporanges sont regroupées en sporocarpes qui ne produisent qu'un seul type de spores, on distingue :
